--- a/Code/Results/Cases/Case_0_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9996480271937945</v>
+        <v>1.030361113059984</v>
       </c>
       <c r="D2">
-        <v>1.014340495366057</v>
+        <v>1.040077525611573</v>
       </c>
       <c r="E2">
-        <v>1.006136221599044</v>
+        <v>1.0300745788704</v>
       </c>
       <c r="F2">
-        <v>1.020413579536444</v>
+        <v>1.048174272068829</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04398066076712</v>
+        <v>1.033256158706183</v>
       </c>
       <c r="J2">
-        <v>1.021839270805973</v>
+        <v>1.035502783351589</v>
       </c>
       <c r="K2">
-        <v>1.025603595103528</v>
+        <v>1.042860897267964</v>
       </c>
       <c r="L2">
-        <v>1.017510725965376</v>
+        <v>1.032886643825647</v>
       </c>
       <c r="M2">
-        <v>1.031595661695817</v>
+        <v>1.050934853409742</v>
       </c>
       <c r="N2">
-        <v>1.011132386913662</v>
+        <v>1.015815989273407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003830642877013</v>
+        <v>1.031254538043011</v>
       </c>
       <c r="D3">
-        <v>1.01801817398735</v>
+        <v>1.040916154152011</v>
       </c>
       <c r="E3">
-        <v>1.009450738282569</v>
+        <v>1.030832069581703</v>
       </c>
       <c r="F3">
-        <v>1.024441562615308</v>
+        <v>1.049096986422159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044786856922936</v>
+        <v>1.033364926305235</v>
       </c>
       <c r="J3">
-        <v>1.024217422646382</v>
+        <v>1.036037915975943</v>
       </c>
       <c r="K3">
-        <v>1.028425585037539</v>
+        <v>1.043509800910734</v>
       </c>
       <c r="L3">
-        <v>1.019964106568111</v>
+        <v>1.033452549832663</v>
       </c>
       <c r="M3">
-        <v>1.034770976117656</v>
+        <v>1.051669273385551</v>
       </c>
       <c r="N3">
-        <v>1.011936115063642</v>
+        <v>1.015995216245234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006485323381907</v>
+        <v>1.031833183624985</v>
       </c>
       <c r="D4">
-        <v>1.020357469094376</v>
+        <v>1.041459624285112</v>
       </c>
       <c r="E4">
-        <v>1.011560444480482</v>
+        <v>1.031323062490476</v>
       </c>
       <c r="F4">
-        <v>1.027003369786597</v>
+        <v>1.049694949048365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04528748488065</v>
+        <v>1.033433990902831</v>
       </c>
       <c r="J4">
-        <v>1.025724576312477</v>
+        <v>1.036384092389006</v>
       </c>
       <c r="K4">
-        <v>1.0302162524366</v>
+        <v>1.043929860109491</v>
       </c>
       <c r="L4">
-        <v>1.021521318992355</v>
+        <v>1.033818912507516</v>
       </c>
       <c r="M4">
-        <v>1.036786455795991</v>
+        <v>1.052144766924754</v>
       </c>
       <c r="N4">
-        <v>1.012445255091024</v>
+        <v>1.016111104140032</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007589368373541</v>
+        <v>1.032076574150214</v>
       </c>
       <c r="D5">
-        <v>1.021331537753625</v>
+        <v>1.041688294152839</v>
       </c>
       <c r="E5">
-        <v>1.012439242430279</v>
+        <v>1.031529676777438</v>
       </c>
       <c r="F5">
-        <v>1.02807002344796</v>
+        <v>1.049946547468012</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045492995827302</v>
+        <v>1.033462710181774</v>
       </c>
       <c r="J5">
-        <v>1.026350810439766</v>
+        <v>1.036529602211118</v>
       </c>
       <c r="K5">
-        <v>1.030960828607806</v>
+        <v>1.04410649359469</v>
       </c>
       <c r="L5">
-        <v>1.022168924858005</v>
+        <v>1.033972974106336</v>
       </c>
       <c r="M5">
-        <v>1.037624660059899</v>
+        <v>1.052344728712729</v>
       </c>
       <c r="N5">
-        <v>1.012656750343113</v>
+        <v>1.016159802878386</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00777405119483</v>
+        <v>1.032117447953373</v>
       </c>
       <c r="D6">
-        <v>1.021494547210554</v>
+        <v>1.041726700219063</v>
       </c>
       <c r="E6">
-        <v>1.012586327469406</v>
+        <v>1.031564379957537</v>
       </c>
       <c r="F6">
-        <v>1.028248523123281</v>
+        <v>1.049988804505075</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045527213900893</v>
+        <v>1.033467513758182</v>
       </c>
       <c r="J6">
-        <v>1.02645553142006</v>
+        <v>1.036554032583411</v>
       </c>
       <c r="K6">
-        <v>1.031085371015339</v>
+        <v>1.044136153476011</v>
       </c>
       <c r="L6">
-        <v>1.022277253328316</v>
+        <v>1.033998844196492</v>
       </c>
       <c r="M6">
-        <v>1.037764872096837</v>
+        <v>1.052378306905171</v>
       </c>
       <c r="N6">
-        <v>1.012692113888852</v>
+        <v>1.016167978394086</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00650012224326</v>
+        <v>1.031836435320099</v>
       </c>
       <c r="D7">
-        <v>1.02037052107679</v>
+        <v>1.041462679018797</v>
       </c>
       <c r="E7">
-        <v>1.011572218602911</v>
+        <v>1.03132582249344</v>
       </c>
       <c r="F7">
-        <v>1.027017662615732</v>
+        <v>1.049698310076316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04529025028284</v>
+        <v>1.033434375891588</v>
       </c>
       <c r="J7">
-        <v>1.025732972785577</v>
+        <v>1.036386036789177</v>
       </c>
       <c r="K7">
-        <v>1.030226233486877</v>
+        <v>1.043932220136915</v>
       </c>
       <c r="L7">
-        <v>1.021529999755075</v>
+        <v>1.033820970919789</v>
       </c>
       <c r="M7">
-        <v>1.03679769134052</v>
+        <v>1.052147438573113</v>
       </c>
       <c r="N7">
-        <v>1.01244809102113</v>
+        <v>1.016111754936185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001072528159579</v>
+        <v>1.030662937633419</v>
       </c>
       <c r="D8">
-        <v>1.015591937701854</v>
+        <v>1.040360773005781</v>
       </c>
       <c r="E8">
-        <v>1.007263785796627</v>
+        <v>1.030330400313516</v>
       </c>
       <c r="F8">
-        <v>1.021784292387897</v>
+        <v>1.048485919371039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044257525071169</v>
+        <v>1.033293189214971</v>
       </c>
       <c r="J8">
-        <v>1.022649664336037</v>
+        <v>1.035683651906098</v>
       </c>
       <c r="K8">
-        <v>1.02656476832286</v>
+        <v>1.043080160224206</v>
       </c>
       <c r="L8">
-        <v>1.018346255310886</v>
+        <v>1.033077855642336</v>
       </c>
       <c r="M8">
-        <v>1.032677050218865</v>
+        <v>1.051182996320867</v>
       </c>
       <c r="N8">
-        <v>1.0114063150949</v>
+        <v>1.015876576985419</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9910928052875098</v>
+        <v>1.028599278186554</v>
       </c>
       <c r="D9">
-        <v>1.006847676485396</v>
+        <v>1.038425436220835</v>
       </c>
       <c r="E9">
-        <v>0.9993914696298155</v>
+        <v>1.028582887943676</v>
       </c>
       <c r="F9">
-        <v>1.01220506776545</v>
+        <v>1.046356534866891</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042272697589139</v>
+        <v>1.033034352591554</v>
       </c>
       <c r="J9">
-        <v>1.016964068515897</v>
+        <v>1.034445320287627</v>
       </c>
       <c r="K9">
-        <v>1.019830623358466</v>
+        <v>1.041580122160905</v>
       </c>
       <c r="L9">
-        <v>1.012494427536254</v>
+        <v>1.031769852663005</v>
       </c>
       <c r="M9">
-        <v>1.025103181931876</v>
+        <v>1.049485694335723</v>
       </c>
       <c r="N9">
-        <v>1.009483654718159</v>
+        <v>1.015461539801434</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9841317247262766</v>
+        <v>1.027226402913728</v>
       </c>
       <c r="D10">
-        <v>1.000779367063187</v>
+        <v>1.03713958549379</v>
       </c>
       <c r="E10">
-        <v>0.993936823386268</v>
+        <v>1.027422378361227</v>
       </c>
       <c r="F10">
-        <v>1.00555499839569</v>
+        <v>1.044941752270808</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040832680017691</v>
+        <v>1.032855074365956</v>
       </c>
       <c r="J10">
-        <v>1.012989383908086</v>
+        <v>1.033619404126182</v>
       </c>
       <c r="K10">
-        <v>1.015134564040568</v>
+        <v>1.040581117398528</v>
       </c>
       <c r="L10">
-        <v>1.008416420137721</v>
+        <v>1.030898906334413</v>
       </c>
       <c r="M10">
-        <v>1.019824674777472</v>
+        <v>1.048355704305471</v>
       </c>
       <c r="N10">
-        <v>1.008138650423469</v>
+        <v>1.015184454994978</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.981037611664159</v>
+        <v>1.026632636324666</v>
       </c>
       <c r="D11">
-        <v>0.9980900296721552</v>
+        <v>1.036583855492023</v>
       </c>
       <c r="E11">
-        <v>0.9915216405766244</v>
+        <v>1.026920952047105</v>
       </c>
       <c r="F11">
-        <v>1.002607183939038</v>
+        <v>1.044330296648812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040180025124095</v>
+        <v>1.032775858229259</v>
       </c>
       <c r="J11">
-        <v>1.011221093169123</v>
+        <v>1.033261701815371</v>
       </c>
       <c r="K11">
-        <v>1.013048055346647</v>
+        <v>1.040148795946533</v>
       </c>
       <c r="L11">
-        <v>1.006605237325745</v>
+        <v>1.03052204272348</v>
       </c>
       <c r="M11">
-        <v>1.017480099511332</v>
+        <v>1.047866790658417</v>
       </c>
       <c r="N11">
-        <v>1.007540100866923</v>
+        <v>1.015064386348217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.979875686577324</v>
+        <v>1.026412191042092</v>
       </c>
       <c r="D12">
-        <v>0.9970813568320459</v>
+        <v>1.036377592269138</v>
       </c>
       <c r="E12">
-        <v>0.9906161372815093</v>
+        <v>1.026734864166497</v>
       </c>
       <c r="F12">
-        <v>1.001501458152578</v>
+        <v>1.044103349922134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039933096268784</v>
+        <v>1.032746195894456</v>
       </c>
       <c r="J12">
-        <v>1.01055685657305</v>
+        <v>1.033128825093853</v>
       </c>
       <c r="K12">
-        <v>1.01226468787374</v>
+        <v>1.03998825202028</v>
       </c>
       <c r="L12">
-        <v>1.005925352885649</v>
+        <v>1.030382099374002</v>
       </c>
       <c r="M12">
-        <v>1.016599949016895</v>
+        <v>1.047685244820718</v>
       </c>
       <c r="N12">
-        <v>1.007315240858027</v>
+        <v>1.015019774552883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9801255056695898</v>
+        <v>1.026459472483215</v>
       </c>
       <c r="D13">
-        <v>0.9972981687379714</v>
+        <v>1.036421829180474</v>
       </c>
       <c r="E13">
-        <v>0.9908107573370234</v>
+        <v>1.02677477319314</v>
       </c>
       <c r="F13">
-        <v>1.001739136381048</v>
+        <v>1.044152022814438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039986269317324</v>
+        <v>1.032752569323894</v>
       </c>
       <c r="J13">
-        <v>1.010699678460756</v>
+        <v>1.033157328043045</v>
       </c>
       <c r="K13">
-        <v>1.012433106692337</v>
+        <v>1.040022687428339</v>
       </c>
       <c r="L13">
-        <v>1.006071518315537</v>
+        <v>1.030412115841667</v>
       </c>
       <c r="M13">
-        <v>1.016789170756859</v>
+        <v>1.047724184350538</v>
       </c>
       <c r="N13">
-        <v>1.007363590435502</v>
+        <v>1.015029344513678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9809418280664686</v>
+        <v>1.026614412077706</v>
       </c>
       <c r="D14">
-        <v>0.9980068537783944</v>
+        <v>1.036566802443651</v>
       </c>
       <c r="E14">
-        <v>0.9914469650328281</v>
+        <v>1.026905566606281</v>
       </c>
       <c r="F14">
-        <v>1.002516007231823</v>
+        <v>1.044311533579696</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040159706559589</v>
+        <v>1.032773411181922</v>
       </c>
       <c r="J14">
-        <v>1.011166340340802</v>
+        <v>1.03325071838474</v>
       </c>
       <c r="K14">
-        <v>1.01298347440845</v>
+        <v>1.040135524521882</v>
       </c>
       <c r="L14">
-        <v>1.006549185203862</v>
+        <v>1.030510474127726</v>
       </c>
       <c r="M14">
-        <v>1.017407537608993</v>
+        <v>1.047851782821918</v>
       </c>
       <c r="N14">
-        <v>1.007521566152916</v>
+        <v>1.015060698985056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9814430977102543</v>
+        <v>1.026709889568671</v>
       </c>
       <c r="D15">
-        <v>0.9984421940225771</v>
+        <v>1.036656146458471</v>
       </c>
       <c r="E15">
-        <v>0.9918378288153969</v>
+        <v>1.026986174548558</v>
       </c>
       <c r="F15">
-        <v>1.0029932190595</v>
+        <v>1.044409836680815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040265966172106</v>
+        <v>1.032786221026855</v>
       </c>
       <c r="J15">
-        <v>1.01145287371276</v>
+        <v>1.033308257944665</v>
       </c>
       <c r="K15">
-        <v>1.013321456840211</v>
+        <v>1.040205052454251</v>
       </c>
       <c r="L15">
-        <v>1.006842536990922</v>
+        <v>1.030571081327386</v>
       </c>
       <c r="M15">
-        <v>1.017787292515655</v>
+        <v>1.047930408241141</v>
       </c>
       <c r="N15">
-        <v>1.007618561428011</v>
+        <v>1.015080015806103</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9843353344327421</v>
+        <v>1.027265824050644</v>
       </c>
       <c r="D16">
-        <v>1.000956510504073</v>
+        <v>1.037176489762867</v>
       </c>
       <c r="E16">
-        <v>0.9940959555925345</v>
+        <v>1.027455679309055</v>
       </c>
       <c r="F16">
-        <v>1.005749152977808</v>
+        <v>1.044982357033454</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040875370259396</v>
+        <v>1.032860298281985</v>
       </c>
       <c r="J16">
-        <v>1.013105717724837</v>
+        <v>1.03364314216383</v>
       </c>
       <c r="K16">
-        <v>1.015271889274585</v>
+        <v>1.040609814617817</v>
       </c>
       <c r="L16">
-        <v>1.008535640033826</v>
+        <v>1.030923923153829</v>
       </c>
       <c r="M16">
-        <v>1.019978999755637</v>
+        <v>1.048388160012842</v>
       </c>
       <c r="N16">
-        <v>1.008178025020797</v>
+        <v>1.015192421715332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9861277315562266</v>
+        <v>1.027614734696765</v>
       </c>
       <c r="D17">
-        <v>1.00251683444445</v>
+        <v>1.037503170120354</v>
       </c>
       <c r="E17">
-        <v>0.9954978840265217</v>
+        <v>1.027750478066358</v>
       </c>
       <c r="F17">
-        <v>1.007459239565586</v>
+        <v>1.045341794205512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04124974908467</v>
+        <v>1.032906340372786</v>
       </c>
       <c r="J17">
-        <v>1.014129640013864</v>
+        <v>1.033853186865433</v>
       </c>
       <c r="K17">
-        <v>1.016480877877875</v>
+        <v>1.040863780217605</v>
       </c>
       <c r="L17">
-        <v>1.009585314827699</v>
+        <v>1.031145322494085</v>
       </c>
       <c r="M17">
-        <v>1.021337733248402</v>
+        <v>1.048675398226506</v>
       </c>
       <c r="N17">
-        <v>1.008524564755314</v>
+        <v>1.015262907423675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871655398445675</v>
+        <v>1.027818315582615</v>
       </c>
       <c r="D18">
-        <v>1.003421022542556</v>
+        <v>1.037693818625657</v>
       </c>
       <c r="E18">
-        <v>0.9963104915940353</v>
+        <v>1.027922533481901</v>
       </c>
       <c r="F18">
-        <v>1.008450151611949</v>
+        <v>1.045551559115836</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041465317629799</v>
+        <v>1.032933042738338</v>
       </c>
       <c r="J18">
-        <v>1.014722342544132</v>
+        <v>1.033975695057898</v>
       </c>
       <c r="K18">
-        <v>1.017180964813492</v>
+        <v>1.04101193849357</v>
       </c>
       <c r="L18">
-        <v>1.010193216121408</v>
+        <v>1.031274486170341</v>
       </c>
       <c r="M18">
-        <v>1.022124601331292</v>
+        <v>1.048842975935429</v>
       </c>
       <c r="N18">
-        <v>1.008725144351944</v>
+        <v>1.015304011919298</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.987518123632389</v>
+        <v>1.027887742764628</v>
       </c>
       <c r="D19">
-        <v>1.003728336289767</v>
+        <v>1.037758841985794</v>
       </c>
       <c r="E19">
-        <v>0.9965867139226525</v>
+        <v>1.027981217572004</v>
       </c>
       <c r="F19">
-        <v>1.008786930750583</v>
+        <v>1.045623102355697</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041538349741696</v>
+        <v>1.03294212155114</v>
       </c>
       <c r="J19">
-        <v>1.014923679117583</v>
+        <v>1.034017465908078</v>
       </c>
       <c r="K19">
-        <v>1.01741882291336</v>
+        <v>1.041062460741969</v>
       </c>
       <c r="L19">
-        <v>1.010399765041126</v>
+        <v>1.031318531880807</v>
       </c>
       <c r="M19">
-        <v>1.022391955463789</v>
+        <v>1.048900121753808</v>
       </c>
       <c r="N19">
-        <v>1.008793276790465</v>
+        <v>1.015318026013885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9859362217042112</v>
+        <v>1.027577292925486</v>
       </c>
       <c r="D20">
-        <v>1.002350042278461</v>
+        <v>1.037468109911812</v>
       </c>
       <c r="E20">
-        <v>0.9953480020469629</v>
+        <v>1.02771883815094</v>
       </c>
       <c r="F20">
-        <v>1.007276444848024</v>
+        <v>1.045303218475528</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041209872334149</v>
+        <v>1.032901416335012</v>
       </c>
       <c r="J20">
-        <v>1.014020254062705</v>
+        <v>1.033830651806587</v>
       </c>
       <c r="K20">
-        <v>1.01635169451145</v>
+        <v>1.040836529574947</v>
       </c>
       <c r="L20">
-        <v>1.009473147443739</v>
+        <v>1.031121565826107</v>
       </c>
       <c r="M20">
-        <v>1.021192542170997</v>
+        <v>1.048644576496843</v>
       </c>
       <c r="N20">
-        <v>1.008487545504724</v>
+        <v>1.015255345863297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9807017954586899</v>
+        <v>1.026568783290654</v>
       </c>
       <c r="D21">
-        <v>0.9977984362237158</v>
+        <v>1.03652410701109</v>
       </c>
       <c r="E21">
-        <v>0.9912598527819555</v>
+        <v>1.026867046660909</v>
       </c>
       <c r="F21">
-        <v>1.002287539915163</v>
+        <v>1.044264556787669</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040108759019829</v>
+        <v>1.032767280337805</v>
       </c>
       <c r="J21">
-        <v>1.011029127397487</v>
+        <v>1.033223217528052</v>
       </c>
       <c r="K21">
-        <v>1.012821638291206</v>
+        <v>1.040102295708955</v>
       </c>
       <c r="L21">
-        <v>1.006408723658545</v>
+        <v>1.030481508934052</v>
       </c>
       <c r="M21">
-        <v>1.017225703365622</v>
+        <v>1.04781420662702</v>
       </c>
       <c r="N21">
-        <v>1.007475117016453</v>
+        <v>1.015051466228847</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773372683386974</v>
+        <v>1.025935307557867</v>
       </c>
       <c r="D22">
-        <v>0.9948800983391538</v>
+        <v>1.035931499368786</v>
       </c>
       <c r="E22">
-        <v>0.9886406778216271</v>
+        <v>1.026332442231203</v>
       </c>
       <c r="F22">
-        <v>0.9990881897734527</v>
+        <v>1.043612522949426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039390317820563</v>
+        <v>1.03268156737789</v>
       </c>
       <c r="J22">
-        <v>1.009105415069427</v>
+        <v>1.032841241287883</v>
       </c>
       <c r="K22">
-        <v>1.010553668405307</v>
+        <v>1.039640882982592</v>
       </c>
       <c r="L22">
-        <v>1.004440574481566</v>
+        <v>1.030079315127372</v>
       </c>
       <c r="M22">
-        <v>1.014677731469099</v>
+        <v>1.047292459078538</v>
       </c>
       <c r="N22">
-        <v>1.006823856359095</v>
+        <v>1.014923204277243</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9791280487965971</v>
+        <v>1.026271066372287</v>
       </c>
       <c r="D23">
-        <v>0.9964326873029065</v>
+        <v>1.036245563725966</v>
       </c>
       <c r="E23">
-        <v>0.9900339141079385</v>
+        <v>1.026615755499224</v>
       </c>
       <c r="F23">
-        <v>1.000790343139711</v>
+        <v>1.043958081756815</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039773699020657</v>
+        <v>1.03272713571083</v>
       </c>
       <c r="J23">
-        <v>1.010129406170383</v>
+        <v>1.033043739257355</v>
       </c>
       <c r="K23">
-        <v>1.011760687516815</v>
+        <v>1.03988546442849</v>
       </c>
       <c r="L23">
-        <v>1.005487963800317</v>
+        <v>1.030292502954017</v>
       </c>
       <c r="M23">
-        <v>1.016033710529355</v>
+        <v>1.047569014714773</v>
       </c>
       <c r="N23">
-        <v>1.007170532850135</v>
+        <v>1.014991205304288</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9860227804096121</v>
+        <v>1.027594211042722</v>
       </c>
       <c r="D24">
-        <v>1.00242542674788</v>
+        <v>1.03748395179784</v>
       </c>
       <c r="E24">
-        <v>0.9954157430363876</v>
+        <v>1.027733134544753</v>
       </c>
       <c r="F24">
-        <v>1.00735906212472</v>
+        <v>1.045320648843751</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04122789956558</v>
+        <v>1.032903641769175</v>
       </c>
       <c r="J24">
-        <v>1.014069694854008</v>
+        <v>1.033840834452434</v>
       </c>
       <c r="K24">
-        <v>1.016410082634588</v>
+        <v>1.040848842892008</v>
       </c>
       <c r="L24">
-        <v>1.009523844496004</v>
+        <v>1.031132300364087</v>
       </c>
       <c r="M24">
-        <v>1.021258165224798</v>
+        <v>1.048658503397091</v>
       </c>
       <c r="N24">
-        <v>1.008504277696597</v>
+        <v>1.015258762633648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9937248837208422</v>
+        <v>1.02913227862665</v>
       </c>
       <c r="D25">
-        <v>1.009148746679992</v>
+        <v>1.038925003293464</v>
       </c>
       <c r="E25">
-        <v>1.001461657820629</v>
+        <v>1.029033875860576</v>
       </c>
       <c r="F25">
-        <v>1.014726227291334</v>
+        <v>1.046906191759198</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042805959472402</v>
+        <v>1.03310245515895</v>
       </c>
       <c r="J25">
-        <v>1.018465291870206</v>
+        <v>1.034765527460789</v>
       </c>
       <c r="K25">
-        <v>1.02160668103977</v>
+        <v>1.041967743858008</v>
       </c>
       <c r="L25">
-        <v>1.01403732573066</v>
+        <v>1.032107822085173</v>
       </c>
       <c r="M25">
-        <v>1.027100159175312</v>
+        <v>1.049924221680216</v>
       </c>
       <c r="N25">
-        <v>1.009991484686871</v>
+        <v>1.01556890808884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030361113059984</v>
+        <v>0.9996480271937938</v>
       </c>
       <c r="D2">
-        <v>1.040077525611573</v>
+        <v>1.014340495366056</v>
       </c>
       <c r="E2">
-        <v>1.0300745788704</v>
+        <v>1.006136221599043</v>
       </c>
       <c r="F2">
-        <v>1.048174272068829</v>
+        <v>1.020413579536443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033256158706183</v>
+        <v>1.043980660767119</v>
       </c>
       <c r="J2">
-        <v>1.035502783351589</v>
+        <v>1.021839270805973</v>
       </c>
       <c r="K2">
-        <v>1.042860897267964</v>
+        <v>1.025603595103528</v>
       </c>
       <c r="L2">
-        <v>1.032886643825647</v>
+        <v>1.017510725965375</v>
       </c>
       <c r="M2">
-        <v>1.050934853409742</v>
+        <v>1.031595661695816</v>
       </c>
       <c r="N2">
-        <v>1.015815989273407</v>
+        <v>1.011132386913662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031254538043011</v>
+        <v>1.003830642877013</v>
       </c>
       <c r="D3">
-        <v>1.040916154152011</v>
+        <v>1.01801817398735</v>
       </c>
       <c r="E3">
-        <v>1.030832069581703</v>
+        <v>1.009450738282569</v>
       </c>
       <c r="F3">
-        <v>1.049096986422159</v>
+        <v>1.024441562615308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033364926305235</v>
+        <v>1.044786856922936</v>
       </c>
       <c r="J3">
-        <v>1.036037915975943</v>
+        <v>1.024217422646382</v>
       </c>
       <c r="K3">
-        <v>1.043509800910734</v>
+        <v>1.028425585037539</v>
       </c>
       <c r="L3">
-        <v>1.033452549832663</v>
+        <v>1.019964106568111</v>
       </c>
       <c r="M3">
-        <v>1.051669273385551</v>
+        <v>1.034770976117656</v>
       </c>
       <c r="N3">
-        <v>1.015995216245234</v>
+        <v>1.011936115063642</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031833183624985</v>
+        <v>1.006485323381906</v>
       </c>
       <c r="D4">
-        <v>1.041459624285112</v>
+        <v>1.020357469094375</v>
       </c>
       <c r="E4">
-        <v>1.031323062490476</v>
+        <v>1.011560444480482</v>
       </c>
       <c r="F4">
-        <v>1.049694949048365</v>
+        <v>1.027003369786597</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033433990902831</v>
+        <v>1.04528748488065</v>
       </c>
       <c r="J4">
-        <v>1.036384092389006</v>
+        <v>1.025724576312476</v>
       </c>
       <c r="K4">
-        <v>1.043929860109491</v>
+        <v>1.030216252436599</v>
       </c>
       <c r="L4">
-        <v>1.033818912507516</v>
+        <v>1.021521318992355</v>
       </c>
       <c r="M4">
-        <v>1.052144766924754</v>
+        <v>1.03678645579599</v>
       </c>
       <c r="N4">
-        <v>1.016111104140032</v>
+        <v>1.012445255091024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032076574150214</v>
+        <v>1.00758936837354</v>
       </c>
       <c r="D5">
-        <v>1.041688294152839</v>
+        <v>1.021331537753624</v>
       </c>
       <c r="E5">
-        <v>1.031529676777438</v>
+        <v>1.012439242430278</v>
       </c>
       <c r="F5">
-        <v>1.049946547468012</v>
+        <v>1.02807002344796</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033462710181774</v>
+        <v>1.045492995827302</v>
       </c>
       <c r="J5">
-        <v>1.036529602211118</v>
+        <v>1.026350810439766</v>
       </c>
       <c r="K5">
-        <v>1.04410649359469</v>
+        <v>1.030960828607805</v>
       </c>
       <c r="L5">
-        <v>1.033972974106336</v>
+        <v>1.022168924858004</v>
       </c>
       <c r="M5">
-        <v>1.052344728712729</v>
+        <v>1.037624660059899</v>
       </c>
       <c r="N5">
-        <v>1.016159802878386</v>
+        <v>1.012656750343113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032117447953373</v>
+        <v>1.00777405119483</v>
       </c>
       <c r="D6">
-        <v>1.041726700219063</v>
+        <v>1.021494547210554</v>
       </c>
       <c r="E6">
-        <v>1.031564379957537</v>
+        <v>1.012586327469406</v>
       </c>
       <c r="F6">
-        <v>1.049988804505075</v>
+        <v>1.028248523123281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033467513758182</v>
+        <v>1.045527213900893</v>
       </c>
       <c r="J6">
-        <v>1.036554032583411</v>
+        <v>1.02645553142006</v>
       </c>
       <c r="K6">
-        <v>1.044136153476011</v>
+        <v>1.03108537101534</v>
       </c>
       <c r="L6">
-        <v>1.033998844196492</v>
+        <v>1.022277253328316</v>
       </c>
       <c r="M6">
-        <v>1.052378306905171</v>
+        <v>1.037764872096837</v>
       </c>
       <c r="N6">
-        <v>1.016167978394086</v>
+        <v>1.012692113888853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031836435320099</v>
+        <v>1.006500122243258</v>
       </c>
       <c r="D7">
-        <v>1.041462679018797</v>
+        <v>1.020370521076789</v>
       </c>
       <c r="E7">
-        <v>1.03132582249344</v>
+        <v>1.011572218602909</v>
       </c>
       <c r="F7">
-        <v>1.049698310076316</v>
+        <v>1.02701766261573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033434375891588</v>
+        <v>1.045290250282839</v>
       </c>
       <c r="J7">
-        <v>1.036386036789177</v>
+        <v>1.025732972785576</v>
       </c>
       <c r="K7">
-        <v>1.043932220136915</v>
+        <v>1.030226233486876</v>
       </c>
       <c r="L7">
-        <v>1.033820970919789</v>
+        <v>1.021529999755073</v>
       </c>
       <c r="M7">
-        <v>1.052147438573113</v>
+        <v>1.036797691340518</v>
       </c>
       <c r="N7">
-        <v>1.016111754936185</v>
+        <v>1.01244809102113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030662937633419</v>
+        <v>1.001072528159579</v>
       </c>
       <c r="D8">
-        <v>1.040360773005781</v>
+        <v>1.015591937701854</v>
       </c>
       <c r="E8">
-        <v>1.030330400313516</v>
+        <v>1.007263785796626</v>
       </c>
       <c r="F8">
-        <v>1.048485919371039</v>
+        <v>1.021784292387897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033293189214971</v>
+        <v>1.044257525071169</v>
       </c>
       <c r="J8">
-        <v>1.035683651906098</v>
+        <v>1.022649664336037</v>
       </c>
       <c r="K8">
-        <v>1.043080160224206</v>
+        <v>1.02656476832286</v>
       </c>
       <c r="L8">
-        <v>1.033077855642336</v>
+        <v>1.018346255310886</v>
       </c>
       <c r="M8">
-        <v>1.051182996320867</v>
+        <v>1.032677050218865</v>
       </c>
       <c r="N8">
-        <v>1.015876576985419</v>
+        <v>1.0114063150949</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028599278186554</v>
+        <v>0.9910928052875098</v>
       </c>
       <c r="D9">
-        <v>1.038425436220835</v>
+        <v>1.006847676485396</v>
       </c>
       <c r="E9">
-        <v>1.028582887943676</v>
+        <v>0.9993914696298154</v>
       </c>
       <c r="F9">
-        <v>1.046356534866891</v>
+        <v>1.01220506776545</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033034352591554</v>
+        <v>1.042272697589139</v>
       </c>
       <c r="J9">
-        <v>1.034445320287627</v>
+        <v>1.016964068515897</v>
       </c>
       <c r="K9">
-        <v>1.041580122160905</v>
+        <v>1.019830623358466</v>
       </c>
       <c r="L9">
-        <v>1.031769852663005</v>
+        <v>1.012494427536254</v>
       </c>
       <c r="M9">
-        <v>1.049485694335723</v>
+        <v>1.025103181931876</v>
       </c>
       <c r="N9">
-        <v>1.015461539801434</v>
+        <v>1.009483654718159</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027226402913728</v>
+        <v>0.9841317247262766</v>
       </c>
       <c r="D10">
-        <v>1.03713958549379</v>
+        <v>1.000779367063187</v>
       </c>
       <c r="E10">
-        <v>1.027422378361227</v>
+        <v>0.993936823386268</v>
       </c>
       <c r="F10">
-        <v>1.044941752270808</v>
+        <v>1.00555499839569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032855074365956</v>
+        <v>1.040832680017691</v>
       </c>
       <c r="J10">
-        <v>1.033619404126182</v>
+        <v>1.012989383908086</v>
       </c>
       <c r="K10">
-        <v>1.040581117398528</v>
+        <v>1.015134564040568</v>
       </c>
       <c r="L10">
-        <v>1.030898906334413</v>
+        <v>1.008416420137721</v>
       </c>
       <c r="M10">
-        <v>1.048355704305471</v>
+        <v>1.019824674777472</v>
       </c>
       <c r="N10">
-        <v>1.015184454994978</v>
+        <v>1.008138650423469</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026632636324666</v>
+        <v>0.9810376116641593</v>
       </c>
       <c r="D11">
-        <v>1.036583855492023</v>
+        <v>0.9980900296721557</v>
       </c>
       <c r="E11">
-        <v>1.026920952047105</v>
+        <v>0.9915216405766245</v>
       </c>
       <c r="F11">
-        <v>1.044330296648812</v>
+        <v>1.002607183939038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032775858229259</v>
+        <v>1.040180025124095</v>
       </c>
       <c r="J11">
-        <v>1.033261701815371</v>
+        <v>1.011221093169123</v>
       </c>
       <c r="K11">
-        <v>1.040148795946533</v>
+        <v>1.013048055346647</v>
       </c>
       <c r="L11">
-        <v>1.03052204272348</v>
+        <v>1.006605237325745</v>
       </c>
       <c r="M11">
-        <v>1.047866790658417</v>
+        <v>1.017480099511333</v>
       </c>
       <c r="N11">
-        <v>1.015064386348217</v>
+        <v>1.007540100866922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026412191042092</v>
+        <v>0.9798756865773233</v>
       </c>
       <c r="D12">
-        <v>1.036377592269138</v>
+        <v>0.9970813568320448</v>
       </c>
       <c r="E12">
-        <v>1.026734864166497</v>
+        <v>0.9906161372815082</v>
       </c>
       <c r="F12">
-        <v>1.044103349922134</v>
+        <v>1.001501458152577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032746195894456</v>
+        <v>1.039933096268784</v>
       </c>
       <c r="J12">
-        <v>1.033128825093853</v>
+        <v>1.010556856573049</v>
       </c>
       <c r="K12">
-        <v>1.03998825202028</v>
+        <v>1.012264687873739</v>
       </c>
       <c r="L12">
-        <v>1.030382099374002</v>
+        <v>1.005925352885648</v>
       </c>
       <c r="M12">
-        <v>1.047685244820718</v>
+        <v>1.016599949016894</v>
       </c>
       <c r="N12">
-        <v>1.015019774552883</v>
+        <v>1.007315240858027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026459472483215</v>
+        <v>0.9801255056695894</v>
       </c>
       <c r="D13">
-        <v>1.036421829180474</v>
+        <v>0.9972981687379709</v>
       </c>
       <c r="E13">
-        <v>1.02677477319314</v>
+        <v>0.9908107573370231</v>
       </c>
       <c r="F13">
-        <v>1.044152022814438</v>
+        <v>1.001739136381048</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032752569323894</v>
+        <v>1.039986269317324</v>
       </c>
       <c r="J13">
-        <v>1.033157328043045</v>
+        <v>1.010699678460755</v>
       </c>
       <c r="K13">
-        <v>1.040022687428339</v>
+        <v>1.012433106692337</v>
       </c>
       <c r="L13">
-        <v>1.030412115841667</v>
+        <v>1.006071518315536</v>
       </c>
       <c r="M13">
-        <v>1.047724184350538</v>
+        <v>1.016789170756858</v>
       </c>
       <c r="N13">
-        <v>1.015029344513678</v>
+        <v>1.007363590435502</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026614412077706</v>
+        <v>0.9809418280664679</v>
       </c>
       <c r="D14">
-        <v>1.036566802443651</v>
+        <v>0.9980068537783938</v>
       </c>
       <c r="E14">
-        <v>1.026905566606281</v>
+        <v>0.9914469650328276</v>
       </c>
       <c r="F14">
-        <v>1.044311533579696</v>
+        <v>1.002516007231822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032773411181922</v>
+        <v>1.040159706559588</v>
       </c>
       <c r="J14">
-        <v>1.03325071838474</v>
+        <v>1.011166340340802</v>
       </c>
       <c r="K14">
-        <v>1.040135524521882</v>
+        <v>1.01298347440845</v>
       </c>
       <c r="L14">
-        <v>1.030510474127726</v>
+        <v>1.006549185203861</v>
       </c>
       <c r="M14">
-        <v>1.047851782821918</v>
+        <v>1.017407537608992</v>
       </c>
       <c r="N14">
-        <v>1.015060698985056</v>
+        <v>1.007521566152916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026709889568671</v>
+        <v>0.9814430977102543</v>
       </c>
       <c r="D15">
-        <v>1.036656146458471</v>
+        <v>0.9984421940225769</v>
       </c>
       <c r="E15">
-        <v>1.026986174548558</v>
+        <v>0.9918378288153965</v>
       </c>
       <c r="F15">
-        <v>1.044409836680815</v>
+        <v>1.0029932190595</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032786221026855</v>
+        <v>1.040265966172105</v>
       </c>
       <c r="J15">
-        <v>1.033308257944665</v>
+        <v>1.01145287371276</v>
       </c>
       <c r="K15">
-        <v>1.040205052454251</v>
+        <v>1.013321456840211</v>
       </c>
       <c r="L15">
-        <v>1.030571081327386</v>
+        <v>1.006842536990922</v>
       </c>
       <c r="M15">
-        <v>1.047930408241141</v>
+        <v>1.017787292515655</v>
       </c>
       <c r="N15">
-        <v>1.015080015806103</v>
+        <v>1.007618561428011</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027265824050644</v>
+        <v>0.9843353344327417</v>
       </c>
       <c r="D16">
-        <v>1.037176489762867</v>
+        <v>1.000956510504073</v>
       </c>
       <c r="E16">
-        <v>1.027455679309055</v>
+        <v>0.9940959555925339</v>
       </c>
       <c r="F16">
-        <v>1.044982357033454</v>
+        <v>1.005749152977808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032860298281985</v>
+        <v>1.040875370259396</v>
       </c>
       <c r="J16">
-        <v>1.03364314216383</v>
+        <v>1.013105717724836</v>
       </c>
       <c r="K16">
-        <v>1.040609814617817</v>
+        <v>1.015271889274585</v>
       </c>
       <c r="L16">
-        <v>1.030923923153829</v>
+        <v>1.008535640033825</v>
       </c>
       <c r="M16">
-        <v>1.048388160012842</v>
+        <v>1.019978999755637</v>
       </c>
       <c r="N16">
-        <v>1.015192421715332</v>
+        <v>1.008178025020797</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027614734696765</v>
+        <v>0.986127731556226</v>
       </c>
       <c r="D17">
-        <v>1.037503170120354</v>
+        <v>1.00251683444445</v>
       </c>
       <c r="E17">
-        <v>1.027750478066358</v>
+        <v>0.9954978840265211</v>
       </c>
       <c r="F17">
-        <v>1.045341794205512</v>
+        <v>1.007459239565586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032906340372786</v>
+        <v>1.04124974908467</v>
       </c>
       <c r="J17">
-        <v>1.033853186865433</v>
+        <v>1.014129640013864</v>
       </c>
       <c r="K17">
-        <v>1.040863780217605</v>
+        <v>1.016480877877874</v>
       </c>
       <c r="L17">
-        <v>1.031145322494085</v>
+        <v>1.009585314827698</v>
       </c>
       <c r="M17">
-        <v>1.048675398226506</v>
+        <v>1.021337733248402</v>
       </c>
       <c r="N17">
-        <v>1.015262907423675</v>
+        <v>1.008524564755314</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027818315582615</v>
+        <v>0.987165539844568</v>
       </c>
       <c r="D18">
-        <v>1.037693818625657</v>
+        <v>1.003421022542557</v>
       </c>
       <c r="E18">
-        <v>1.027922533481901</v>
+        <v>0.996310491594036</v>
       </c>
       <c r="F18">
-        <v>1.045551559115836</v>
+        <v>1.00845015161195</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032933042738338</v>
+        <v>1.041465317629799</v>
       </c>
       <c r="J18">
-        <v>1.033975695057898</v>
+        <v>1.014722342544132</v>
       </c>
       <c r="K18">
-        <v>1.04101193849357</v>
+        <v>1.017180964813492</v>
       </c>
       <c r="L18">
-        <v>1.031274486170341</v>
+        <v>1.010193216121408</v>
       </c>
       <c r="M18">
-        <v>1.048842975935429</v>
+        <v>1.022124601331293</v>
       </c>
       <c r="N18">
-        <v>1.015304011919298</v>
+        <v>1.008725144351944</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027887742764628</v>
+        <v>0.9875181236323896</v>
       </c>
       <c r="D19">
-        <v>1.037758841985794</v>
+        <v>1.003728336289768</v>
       </c>
       <c r="E19">
-        <v>1.027981217572004</v>
+        <v>0.9965867139226533</v>
       </c>
       <c r="F19">
-        <v>1.045623102355697</v>
+        <v>1.008786930750583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03294212155114</v>
+        <v>1.041538349741696</v>
       </c>
       <c r="J19">
-        <v>1.034017465908078</v>
+        <v>1.014923679117584</v>
       </c>
       <c r="K19">
-        <v>1.041062460741969</v>
+        <v>1.017418822913361</v>
       </c>
       <c r="L19">
-        <v>1.031318531880807</v>
+        <v>1.010399765041127</v>
       </c>
       <c r="M19">
-        <v>1.048900121753808</v>
+        <v>1.02239195546379</v>
       </c>
       <c r="N19">
-        <v>1.015318026013885</v>
+        <v>1.008793276790466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027577292925486</v>
+        <v>0.985936221704211</v>
       </c>
       <c r="D20">
-        <v>1.037468109911812</v>
+        <v>1.002350042278461</v>
       </c>
       <c r="E20">
-        <v>1.02771883815094</v>
+        <v>0.9953480020469627</v>
       </c>
       <c r="F20">
-        <v>1.045303218475528</v>
+        <v>1.007276444848024</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032901416335012</v>
+        <v>1.041209872334149</v>
       </c>
       <c r="J20">
-        <v>1.033830651806587</v>
+        <v>1.014020254062705</v>
       </c>
       <c r="K20">
-        <v>1.040836529574947</v>
+        <v>1.016351694511449</v>
       </c>
       <c r="L20">
-        <v>1.031121565826107</v>
+        <v>1.009473147443739</v>
       </c>
       <c r="M20">
-        <v>1.048644576496843</v>
+        <v>1.021192542170997</v>
       </c>
       <c r="N20">
-        <v>1.015255345863297</v>
+        <v>1.008487545504723</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026568783290654</v>
+        <v>0.9807017954586896</v>
       </c>
       <c r="D21">
-        <v>1.03652410701109</v>
+        <v>0.9977984362237156</v>
       </c>
       <c r="E21">
-        <v>1.026867046660909</v>
+        <v>0.9912598527819553</v>
       </c>
       <c r="F21">
-        <v>1.044264556787669</v>
+        <v>1.002287539915162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032767280337805</v>
+        <v>1.040108759019829</v>
       </c>
       <c r="J21">
-        <v>1.033223217528052</v>
+        <v>1.011029127397487</v>
       </c>
       <c r="K21">
-        <v>1.040102295708955</v>
+        <v>1.012821638291205</v>
       </c>
       <c r="L21">
-        <v>1.030481508934052</v>
+        <v>1.006408723658545</v>
       </c>
       <c r="M21">
-        <v>1.04781420662702</v>
+        <v>1.017225703365622</v>
       </c>
       <c r="N21">
-        <v>1.015051466228847</v>
+        <v>1.007475117016453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025935307557867</v>
+        <v>0.9773372683386977</v>
       </c>
       <c r="D22">
-        <v>1.035931499368786</v>
+        <v>0.9948800983391541</v>
       </c>
       <c r="E22">
-        <v>1.026332442231203</v>
+        <v>0.9886406778216273</v>
       </c>
       <c r="F22">
-        <v>1.043612522949426</v>
+        <v>0.9990881897734534</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03268156737789</v>
+        <v>1.039390317820564</v>
       </c>
       <c r="J22">
-        <v>1.032841241287883</v>
+        <v>1.009105415069427</v>
       </c>
       <c r="K22">
-        <v>1.039640882982592</v>
+        <v>1.010553668405307</v>
       </c>
       <c r="L22">
-        <v>1.030079315127372</v>
+        <v>1.004440574481566</v>
       </c>
       <c r="M22">
-        <v>1.047292459078538</v>
+        <v>1.0146777314691</v>
       </c>
       <c r="N22">
-        <v>1.014923204277243</v>
+        <v>1.006823856359095</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026271066372287</v>
+        <v>0.9791280487965961</v>
       </c>
       <c r="D23">
-        <v>1.036245563725966</v>
+        <v>0.9964326873029055</v>
       </c>
       <c r="E23">
-        <v>1.026615755499224</v>
+        <v>0.9900339141079372</v>
       </c>
       <c r="F23">
-        <v>1.043958081756815</v>
+        <v>1.00079034313971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03272713571083</v>
+        <v>1.039773699020657</v>
       </c>
       <c r="J23">
-        <v>1.033043739257355</v>
+        <v>1.010129406170382</v>
       </c>
       <c r="K23">
-        <v>1.03988546442849</v>
+        <v>1.011760687516814</v>
       </c>
       <c r="L23">
-        <v>1.030292502954017</v>
+        <v>1.005487963800316</v>
       </c>
       <c r="M23">
-        <v>1.047569014714773</v>
+        <v>1.016033710529354</v>
       </c>
       <c r="N23">
-        <v>1.014991205304288</v>
+        <v>1.007170532850135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027594211042722</v>
+        <v>0.9860227804096117</v>
       </c>
       <c r="D24">
-        <v>1.03748395179784</v>
+        <v>1.002425426747879</v>
       </c>
       <c r="E24">
-        <v>1.027733134544753</v>
+        <v>0.9954157430363868</v>
       </c>
       <c r="F24">
-        <v>1.045320648843751</v>
+        <v>1.007359062124719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032903641769175</v>
+        <v>1.04122789956558</v>
       </c>
       <c r="J24">
-        <v>1.033840834452434</v>
+        <v>1.014069694854008</v>
       </c>
       <c r="K24">
-        <v>1.040848842892008</v>
+        <v>1.016410082634587</v>
       </c>
       <c r="L24">
-        <v>1.031132300364087</v>
+        <v>1.009523844496003</v>
       </c>
       <c r="M24">
-        <v>1.048658503397091</v>
+        <v>1.021258165224798</v>
       </c>
       <c r="N24">
-        <v>1.015258762633648</v>
+        <v>1.008504277696596</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02913227862665</v>
+        <v>0.9937248837208418</v>
       </c>
       <c r="D25">
-        <v>1.038925003293464</v>
+        <v>1.009148746679991</v>
       </c>
       <c r="E25">
-        <v>1.029033875860576</v>
+        <v>1.001461657820629</v>
       </c>
       <c r="F25">
-        <v>1.046906191759198</v>
+        <v>1.014726227291333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03310245515895</v>
+        <v>1.042805959472402</v>
       </c>
       <c r="J25">
-        <v>1.034765527460789</v>
+        <v>1.018465291870205</v>
       </c>
       <c r="K25">
-        <v>1.041967743858008</v>
+        <v>1.021606681039769</v>
       </c>
       <c r="L25">
-        <v>1.032107822085173</v>
+        <v>1.01403732573066</v>
       </c>
       <c r="M25">
-        <v>1.049924221680216</v>
+        <v>1.027100159175311</v>
       </c>
       <c r="N25">
-        <v>1.01556890808884</v>
+        <v>1.009991484686871</v>
       </c>
     </row>
   </sheetData>
